--- a/TimewaxSync/bin/Debug/app.publish/Planning Timewax.xlsx
+++ b/TimewaxSync/bin/Debug/app.publish/Planning Timewax.xlsx
@@ -481,7 +481,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{909C1821-C790-4FB6-BC17-B401F9199B6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E17518-B67D-4D1D-A6A5-24EA92AA9EF0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>